--- a/Patrick/result/filtered_kmean/delete_this_sps.xlsx
+++ b/Patrick/result/filtered_kmean/delete_this_sps.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,112 +383,231 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17329</t>
+          <t>11614</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20809</t>
+          <t>12296</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21268</t>
+          <t>14734</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>17329</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4415</t>
+          <t>18212</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>19081</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6867</t>
+          <t>2055</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7012</t>
+          <t>20809</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7105</t>
+          <t>21268</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7277</t>
+          <t>21684</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7303</t>
+          <t>27201</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7645</t>
+          <t>3011</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8168</t>
+          <t>3044</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8313</t>
+          <t>31148</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9114</t>
+          <t>4415</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>4426</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4846</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6867</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7303</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7645</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7841</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>8168</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>8313</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>9114</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>9552</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jati</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>T317</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>T408</t>
         </is>
       </c>
     </row>
